--- a/data/structural and behavioral analysis/dataset 2/dataset2.xlsx
+++ b/data/structural and behavioral analysis/dataset 2/dataset2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="95">
   <si>
     <t>NUM</t>
   </si>
@@ -290,6 +290,15 @@
   </si>
   <si>
     <t>F13a_Spherical_Modeling_Tool</t>
+  </si>
+  <si>
+    <t>F13a_Surgery_Assist</t>
+  </si>
+  <si>
+    <t>S14b_E-LockBox</t>
+  </si>
+  <si>
+    <t>F13a_Yanomamo Interactive CDROM</t>
   </si>
 </sst>
 </file>
@@ -631,15 +640,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CF8"/>
+  <dimension ref="A1:CF12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N25" sqref="N25"/>
+      <selection activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="30.85546875" customWidth="1"/>
+    <col min="2" max="2" width="48" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:84" x14ac:dyDescent="0.25">
@@ -2647,6 +2656,1010 @@
         <v>1380</v>
       </c>
       <c r="CF8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:84" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C9">
+        <v>144</v>
+      </c>
+      <c r="D9">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>285</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>22</v>
+      </c>
+      <c r="O9">
+        <v>71</v>
+      </c>
+      <c r="P9">
+        <v>72</v>
+      </c>
+      <c r="Q9">
+        <v>22</v>
+      </c>
+      <c r="R9">
+        <v>20</v>
+      </c>
+      <c r="S9">
+        <v>9.0909090909090898E-2</v>
+      </c>
+      <c r="T9">
+        <v>0.05</v>
+      </c>
+      <c r="U9">
+        <v>2</v>
+      </c>
+      <c r="V9">
+        <v>1</v>
+      </c>
+      <c r="W9">
+        <v>2</v>
+      </c>
+      <c r="X9">
+        <v>2</v>
+      </c>
+      <c r="Y9">
+        <v>1</v>
+      </c>
+      <c r="Z9">
+        <v>2</v>
+      </c>
+      <c r="AA9">
+        <v>2</v>
+      </c>
+      <c r="AB9">
+        <v>6</v>
+      </c>
+      <c r="AC9">
+        <v>0</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
+      </c>
+      <c r="AF9">
+        <v>72</v>
+      </c>
+      <c r="AG9">
+        <v>2</v>
+      </c>
+      <c r="AH9">
+        <v>3.2727272727272698</v>
+      </c>
+      <c r="AI9">
+        <v>3.22727272727272</v>
+      </c>
+      <c r="AJ9">
+        <v>0.27272727272727199</v>
+      </c>
+      <c r="AK9">
+        <v>0</v>
+      </c>
+      <c r="AL9">
+        <v>0</v>
+      </c>
+      <c r="AM9">
+        <v>0</v>
+      </c>
+      <c r="AN9">
+        <v>3.22727272727272</v>
+      </c>
+      <c r="AO9">
+        <v>0</v>
+      </c>
+      <c r="AP9">
+        <v>0</v>
+      </c>
+      <c r="AQ9" t="s">
+        <v>83</v>
+      </c>
+      <c r="AR9">
+        <v>1</v>
+      </c>
+      <c r="AS9">
+        <v>0</v>
+      </c>
+      <c r="AT9">
+        <v>0</v>
+      </c>
+      <c r="AU9">
+        <v>0</v>
+      </c>
+      <c r="AV9">
+        <v>0</v>
+      </c>
+      <c r="AW9">
+        <v>0</v>
+      </c>
+      <c r="AX9">
+        <v>0</v>
+      </c>
+      <c r="AY9">
+        <v>5</v>
+      </c>
+      <c r="AZ9">
+        <v>4</v>
+      </c>
+      <c r="BA9">
+        <v>0</v>
+      </c>
+      <c r="BB9">
+        <v>37</v>
+      </c>
+      <c r="BC9">
+        <v>4</v>
+      </c>
+      <c r="BD9">
+        <v>43</v>
+      </c>
+      <c r="BE9">
+        <v>0</v>
+      </c>
+      <c r="BF9">
+        <v>41</v>
+      </c>
+      <c r="BG9">
+        <v>101</v>
+      </c>
+      <c r="BH9">
+        <v>43</v>
+      </c>
+      <c r="BI9" t="s">
+        <v>84</v>
+      </c>
+      <c r="BJ9" t="s">
+        <v>84</v>
+      </c>
+      <c r="BL9" t="s">
+        <v>85</v>
+      </c>
+      <c r="BM9" t="s">
+        <v>85</v>
+      </c>
+      <c r="BN9" t="s">
+        <v>85</v>
+      </c>
+      <c r="BO9" t="s">
+        <v>85</v>
+      </c>
+      <c r="BP9">
+        <v>0</v>
+      </c>
+      <c r="BQ9">
+        <v>0</v>
+      </c>
+      <c r="BR9">
+        <v>21</v>
+      </c>
+      <c r="BS9">
+        <v>0</v>
+      </c>
+      <c r="BT9">
+        <v>315</v>
+      </c>
+      <c r="BU9">
+        <v>86</v>
+      </c>
+      <c r="BV9">
+        <v>86</v>
+      </c>
+      <c r="BW9">
+        <v>0</v>
+      </c>
+      <c r="BX9">
+        <v>1</v>
+      </c>
+      <c r="BY9">
+        <v>1</v>
+      </c>
+      <c r="BZ9">
+        <v>315</v>
+      </c>
+      <c r="CA9">
+        <v>86</v>
+      </c>
+      <c r="CB9">
+        <v>86</v>
+      </c>
+      <c r="CC9">
+        <v>1440</v>
+      </c>
+      <c r="CD9">
+        <v>1609</v>
+      </c>
+      <c r="CE9">
+        <v>1232</v>
+      </c>
+      <c r="CF9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:84" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C10">
+        <v>318</v>
+      </c>
+      <c r="D10">
+        <v>18</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>397</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>14</v>
+      </c>
+      <c r="O10">
+        <v>32</v>
+      </c>
+      <c r="P10">
+        <v>20</v>
+      </c>
+      <c r="Q10">
+        <v>14</v>
+      </c>
+      <c r="R10">
+        <v>10</v>
+      </c>
+      <c r="S10">
+        <v>0.42857142857142799</v>
+      </c>
+      <c r="T10">
+        <v>0.36363636363636298</v>
+      </c>
+      <c r="U10">
+        <v>4</v>
+      </c>
+      <c r="V10">
+        <v>4</v>
+      </c>
+      <c r="W10">
+        <v>4</v>
+      </c>
+      <c r="X10">
+        <v>4</v>
+      </c>
+      <c r="Y10">
+        <v>4</v>
+      </c>
+      <c r="Z10">
+        <v>6</v>
+      </c>
+      <c r="AA10">
+        <v>4</v>
+      </c>
+      <c r="AB10">
+        <v>3</v>
+      </c>
+      <c r="AC10">
+        <v>0</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
+      </c>
+      <c r="AF10">
+        <v>20</v>
+      </c>
+      <c r="AG10">
+        <v>6</v>
+      </c>
+      <c r="AH10">
+        <v>1.4285714285714199</v>
+      </c>
+      <c r="AI10">
+        <v>2.2857142857142798</v>
+      </c>
+      <c r="AJ10">
+        <v>0.214285714285714</v>
+      </c>
+      <c r="AK10">
+        <v>0</v>
+      </c>
+      <c r="AL10">
+        <v>0</v>
+      </c>
+      <c r="AM10">
+        <v>0</v>
+      </c>
+      <c r="AN10">
+        <v>2.2857142857142798</v>
+      </c>
+      <c r="AO10">
+        <v>0</v>
+      </c>
+      <c r="AP10">
+        <v>0</v>
+      </c>
+      <c r="AQ10" t="s">
+        <v>83</v>
+      </c>
+      <c r="AR10">
+        <v>1</v>
+      </c>
+      <c r="AS10">
+        <v>0</v>
+      </c>
+      <c r="AT10">
+        <v>0</v>
+      </c>
+      <c r="AU10">
+        <v>0</v>
+      </c>
+      <c r="AV10">
+        <v>0</v>
+      </c>
+      <c r="AW10">
+        <v>0</v>
+      </c>
+      <c r="AX10">
+        <v>0</v>
+      </c>
+      <c r="AY10">
+        <v>29</v>
+      </c>
+      <c r="AZ10">
+        <v>6</v>
+      </c>
+      <c r="BA10">
+        <v>0</v>
+      </c>
+      <c r="BB10">
+        <v>27</v>
+      </c>
+      <c r="BC10">
+        <v>6</v>
+      </c>
+      <c r="BD10">
+        <v>44</v>
+      </c>
+      <c r="BE10">
+        <v>0</v>
+      </c>
+      <c r="BF10">
+        <v>33</v>
+      </c>
+      <c r="BG10">
+        <v>274</v>
+      </c>
+      <c r="BH10">
+        <v>44</v>
+      </c>
+      <c r="BI10" t="s">
+        <v>84</v>
+      </c>
+      <c r="BJ10" t="s">
+        <v>84</v>
+      </c>
+      <c r="BL10" t="s">
+        <v>85</v>
+      </c>
+      <c r="BM10" t="s">
+        <v>85</v>
+      </c>
+      <c r="BN10" t="s">
+        <v>85</v>
+      </c>
+      <c r="BO10" t="s">
+        <v>85</v>
+      </c>
+      <c r="BP10">
+        <v>0</v>
+      </c>
+      <c r="BQ10">
+        <v>0</v>
+      </c>
+      <c r="BR10">
+        <v>18</v>
+      </c>
+      <c r="BS10">
+        <v>0</v>
+      </c>
+      <c r="BT10">
+        <v>270</v>
+      </c>
+      <c r="BU10">
+        <v>88</v>
+      </c>
+      <c r="BV10">
+        <v>88</v>
+      </c>
+      <c r="BW10">
+        <v>0</v>
+      </c>
+      <c r="BX10">
+        <v>1</v>
+      </c>
+      <c r="BY10">
+        <v>1</v>
+      </c>
+      <c r="BZ10">
+        <v>270</v>
+      </c>
+      <c r="CA10">
+        <v>88</v>
+      </c>
+      <c r="CB10">
+        <v>88</v>
+      </c>
+      <c r="CC10">
+        <v>3180</v>
+      </c>
+      <c r="CD10">
+        <v>4229</v>
+      </c>
+      <c r="CE10">
+        <v>3346</v>
+      </c>
+      <c r="CF10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:84" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C11">
+        <v>155</v>
+      </c>
+      <c r="D11">
+        <v>25</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>277</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>16</v>
+      </c>
+      <c r="O11">
+        <v>57</v>
+      </c>
+      <c r="P11">
+        <v>17</v>
+      </c>
+      <c r="Q11">
+        <v>16</v>
+      </c>
+      <c r="R11">
+        <v>12</v>
+      </c>
+      <c r="S11">
+        <v>0.3125</v>
+      </c>
+      <c r="T11">
+        <v>7.69230769230769E-2</v>
+      </c>
+      <c r="U11">
+        <v>4</v>
+      </c>
+      <c r="V11">
+        <v>1</v>
+      </c>
+      <c r="W11">
+        <v>4</v>
+      </c>
+      <c r="X11">
+        <v>4</v>
+      </c>
+      <c r="Y11">
+        <v>1</v>
+      </c>
+      <c r="Z11">
+        <v>5</v>
+      </c>
+      <c r="AA11">
+        <v>4</v>
+      </c>
+      <c r="AB11">
+        <v>0</v>
+      </c>
+      <c r="AC11">
+        <v>0</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
+      </c>
+      <c r="AF11">
+        <v>17</v>
+      </c>
+      <c r="AG11">
+        <v>7</v>
+      </c>
+      <c r="AH11">
+        <v>1.0625</v>
+      </c>
+      <c r="AI11">
+        <v>3.5625</v>
+      </c>
+      <c r="AJ11">
+        <v>0</v>
+      </c>
+      <c r="AK11">
+        <v>0</v>
+      </c>
+      <c r="AL11">
+        <v>0</v>
+      </c>
+      <c r="AM11">
+        <v>0</v>
+      </c>
+      <c r="AN11">
+        <v>3.5625</v>
+      </c>
+      <c r="AO11">
+        <v>0</v>
+      </c>
+      <c r="AP11">
+        <v>0</v>
+      </c>
+      <c r="AQ11" t="s">
+        <v>83</v>
+      </c>
+      <c r="AR11">
+        <v>1</v>
+      </c>
+      <c r="AS11">
+        <v>0</v>
+      </c>
+      <c r="AT11">
+        <v>0</v>
+      </c>
+      <c r="AU11">
+        <v>0</v>
+      </c>
+      <c r="AV11">
+        <v>0</v>
+      </c>
+      <c r="AW11">
+        <v>0</v>
+      </c>
+      <c r="AX11">
+        <v>0</v>
+      </c>
+      <c r="AY11">
+        <v>13</v>
+      </c>
+      <c r="AZ11">
+        <v>2</v>
+      </c>
+      <c r="BA11">
+        <v>0</v>
+      </c>
+      <c r="BB11">
+        <v>38</v>
+      </c>
+      <c r="BC11">
+        <v>2</v>
+      </c>
+      <c r="BD11">
+        <v>43</v>
+      </c>
+      <c r="BE11">
+        <v>0</v>
+      </c>
+      <c r="BF11">
+        <v>40</v>
+      </c>
+      <c r="BG11">
+        <v>112</v>
+      </c>
+      <c r="BH11">
+        <v>43</v>
+      </c>
+      <c r="BI11" t="s">
+        <v>84</v>
+      </c>
+      <c r="BJ11" t="s">
+        <v>84</v>
+      </c>
+      <c r="BL11" t="s">
+        <v>85</v>
+      </c>
+      <c r="BM11" t="s">
+        <v>85</v>
+      </c>
+      <c r="BN11" t="s">
+        <v>85</v>
+      </c>
+      <c r="BO11" t="s">
+        <v>85</v>
+      </c>
+      <c r="BP11">
+        <v>0</v>
+      </c>
+      <c r="BQ11">
+        <v>0</v>
+      </c>
+      <c r="BR11">
+        <v>25</v>
+      </c>
+      <c r="BS11">
+        <v>0</v>
+      </c>
+      <c r="BT11">
+        <v>375</v>
+      </c>
+      <c r="BU11">
+        <v>86</v>
+      </c>
+      <c r="BV11">
+        <v>86</v>
+      </c>
+      <c r="BW11">
+        <v>0</v>
+      </c>
+      <c r="BX11">
+        <v>1</v>
+      </c>
+      <c r="BY11">
+        <v>1</v>
+      </c>
+      <c r="BZ11">
+        <v>375</v>
+      </c>
+      <c r="CA11">
+        <v>86</v>
+      </c>
+      <c r="CB11">
+        <v>86</v>
+      </c>
+      <c r="CC11">
+        <v>1550</v>
+      </c>
+      <c r="CD11">
+        <v>1440</v>
+      </c>
+      <c r="CE11">
+        <v>1062</v>
+      </c>
+      <c r="CF11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:84" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>94</v>
+      </c>
+      <c r="C12">
+        <v>31</v>
+      </c>
+      <c r="D12">
+        <v>9</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>79</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>11</v>
+      </c>
+      <c r="O12">
+        <v>10</v>
+      </c>
+      <c r="P12">
+        <v>7</v>
+      </c>
+      <c r="Q12">
+        <v>11</v>
+      </c>
+      <c r="R12">
+        <v>11</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <v>0</v>
+      </c>
+      <c r="AC12">
+        <v>0</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
+      </c>
+      <c r="AF12">
+        <v>7</v>
+      </c>
+      <c r="AG12">
+        <v>4</v>
+      </c>
+      <c r="AH12">
+        <v>0.63636363636363602</v>
+      </c>
+      <c r="AI12">
+        <v>0.90909090909090895</v>
+      </c>
+      <c r="AJ12">
+        <v>0</v>
+      </c>
+      <c r="AK12">
+        <v>0</v>
+      </c>
+      <c r="AL12">
+        <v>0</v>
+      </c>
+      <c r="AM12">
+        <v>0</v>
+      </c>
+      <c r="AN12">
+        <v>0.90909090909090895</v>
+      </c>
+      <c r="AO12">
+        <v>0</v>
+      </c>
+      <c r="AP12">
+        <v>0</v>
+      </c>
+      <c r="AQ12" t="s">
+        <v>83</v>
+      </c>
+      <c r="AR12">
+        <v>1</v>
+      </c>
+      <c r="AS12">
+        <v>0</v>
+      </c>
+      <c r="AT12">
+        <v>0</v>
+      </c>
+      <c r="AU12">
+        <v>0</v>
+      </c>
+      <c r="AV12">
+        <v>0</v>
+      </c>
+      <c r="AW12">
+        <v>0</v>
+      </c>
+      <c r="AX12">
+        <v>0</v>
+      </c>
+      <c r="AY12">
+        <v>2</v>
+      </c>
+      <c r="AZ12">
+        <v>0</v>
+      </c>
+      <c r="BA12">
+        <v>0</v>
+      </c>
+      <c r="BB12">
+        <v>14</v>
+      </c>
+      <c r="BC12">
+        <v>0</v>
+      </c>
+      <c r="BD12">
+        <v>18</v>
+      </c>
+      <c r="BE12">
+        <v>0</v>
+      </c>
+      <c r="BF12">
+        <v>14</v>
+      </c>
+      <c r="BG12">
+        <v>13</v>
+      </c>
+      <c r="BH12">
+        <v>18</v>
+      </c>
+      <c r="BI12" t="s">
+        <v>84</v>
+      </c>
+      <c r="BJ12" t="s">
+        <v>84</v>
+      </c>
+      <c r="BL12" t="s">
+        <v>85</v>
+      </c>
+      <c r="BM12" t="s">
+        <v>85</v>
+      </c>
+      <c r="BN12" t="s">
+        <v>85</v>
+      </c>
+      <c r="BO12" t="s">
+        <v>85</v>
+      </c>
+      <c r="BP12">
+        <v>0</v>
+      </c>
+      <c r="BQ12">
+        <v>0</v>
+      </c>
+      <c r="BR12">
+        <v>9</v>
+      </c>
+      <c r="BS12">
+        <v>0</v>
+      </c>
+      <c r="BT12">
+        <v>135</v>
+      </c>
+      <c r="BU12">
+        <v>36</v>
+      </c>
+      <c r="BV12">
+        <v>36</v>
+      </c>
+      <c r="BW12">
+        <v>0</v>
+      </c>
+      <c r="BX12">
+        <v>1</v>
+      </c>
+      <c r="BY12">
+        <v>1</v>
+      </c>
+      <c r="BZ12">
+        <v>135</v>
+      </c>
+      <c r="CA12">
+        <v>36</v>
+      </c>
+      <c r="CB12">
+        <v>36</v>
+      </c>
+      <c r="CC12">
+        <v>310</v>
+      </c>
+      <c r="CD12">
+        <v>290</v>
+      </c>
+      <c r="CE12">
+        <v>214</v>
+      </c>
+      <c r="CF12">
         <v>0</v>
       </c>
     </row>
